--- a/TNXP_Discontiue_1H/Task.xlsx
+++ b/TNXP_Discontiue_1H/Task.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="all_info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bom_octopart_price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ppn" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1838,4 +1839,1223 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>P5010NSE1QMB</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MC908JB8ADWE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MC8610TPX800GB</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PCA9500BSHP</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PCA9539RBS,118</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MC68302AG25C</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MC68302AG33C</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NX3L1T5157GM,132</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PCA9306DC1,125</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MC68302CAG16VC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P2020NXE2KHC</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MC8640DHX1067NE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MC8610TPX1066JB</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MC7448VU1000ND</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P1021NXN2HFB</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MC34717EP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MC68HCP11E0FNE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MC34716EP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P1021NXN2DFB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MC68LC302AF25CT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MC908JL8CFAER2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P2020NXN2KFC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MC33879TEKR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>KMC68MH360AI33L</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MC9328MX21VK</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PCA9536D,112</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MC8641VJ1333JE</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P5010NXE7QMB</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MPXV12GP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P2041NSN7NNC</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P1022NSN2EFB</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MC68302EH16CB1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MC68908GZ8CFJER</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NX3L1G66GW,125</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MC35XS3400DHFKR2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>P2010NSE2MFC</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MC68360CZQ25LR2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PCA9518APW,512</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MC68LC302AF20CT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MC33988CHFKR2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PCA9501PW,112</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MC7447AVU1420LB</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MC7448VU1400ND</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MC7447AVU1000NB</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MC68EN360AI25L</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>P1024NXN5DFB</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MC68EN360AI25VL</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MC68340CAB25E</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MC68SEC000CAA20</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PCA9538D,118</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MC68340AG16VE</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MC68L11E1FNE2</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MC8641DVU1000NE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NCX2222DPH</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MC7457RX1267LC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MC33879BPEKR2</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MC9RS08KB8CTG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MC68HC908QT1MPE</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MC908LJ24CPBER</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>P2041NXE7MMC</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MC68340CAG25E</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>P4080NSN7MMC</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MC68EN360VR25LR2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>P1021NXE2FFB</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MC68HC908QT4CPE</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MC68EN360ZQ25VL</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MC33988CHFK</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MC50XS4200BEKR2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MC9RS08KB12CSG</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MC68711E20CFUE3</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MC7448THX1267ND</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>P2041NSN7MMC</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MC7447AVU1000LB</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MC68LC302CAF16CT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MC68LC302AF20VCT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>KMC7457RX1000NC</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MC68EN360ZQ33L</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MC9RS08KA2CPC</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NX3L1G384GM,115</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MC35XS3500DHFKR2</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MC33981BHFKR2</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>KMC68360AI33L</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MC9RS08LA8CLF</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NTS0102GD-Q100H</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>PCA8574PW,112</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MC8641DVJ1333JE</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MPXM2010D</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>P5010NSN1QMB</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>P1011NSE2DFB</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>P1020NXN2HFB</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>P1010NSE5DFA</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>A2I35H060GNR1</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>P1017NSN5HFB</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MC68SEC000CAA10</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>P1013NSN2EFB</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>P1020NSE2HFB</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>P1022NSE2HFB</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NCX2200GF3,132</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NTM88H065T1</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>PCA9539BS,118</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>